--- a/tube_heating/000_t/data/tube_geometry.xlsx
+++ b/tube_heating/000_t/data/tube_geometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\kortests\tube_heating\000_t\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D7A22-8366-419F-AD05-BC82B2CFA117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B1370-259E-4B7E-8FFB-413DAA2A5C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH1" sheetId="7" r:id="rId1"/>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:I2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +429,8 @@
         <v>2.4899999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <f>1.5/5</f>
+        <v>0.3</v>
       </c>
       <c r="D2">
         <f>0.0062</f>
@@ -449,7 +450,7 @@
       </c>
       <c r="J2">
         <f>C2</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -462,10 +463,11 @@
         <v>2.4899999999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <f t="shared" ref="C3:C6" si="1">1.5/5</f>
+        <v>0.3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">0.0062</f>
+        <f t="shared" ref="D3:D6" si="2">0.0062</f>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E3">
@@ -482,7 +484,7 @@
       </c>
       <c r="J3">
         <f>J2+C3</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -495,10 +497,11 @@
         <v>2.4899999999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E4">
@@ -515,7 +518,7 @@
       </c>
       <c r="J4">
         <f>J3+C4</f>
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -528,10 +531,11 @@
         <v>2.4899999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E5">
@@ -548,7 +552,7 @@
       </c>
       <c r="J5">
         <f>J4+C5</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -561,10 +565,11 @@
         <v>2.4899999999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="E6">
@@ -581,7 +586,13 @@
       </c>
       <c r="J6">
         <f>J5+C6</f>
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>
